--- a/MarsQA_CompetitionProject/ExcelData/TestData.xlsx
+++ b/MarsQA_CompetitionProject/ExcelData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MVP Studio\PROJECTS\MarsQA_CompetitionProject\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA13B52A-9968-4AC9-9361-E1DDBA061F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D3012E-9EF4-4C0B-8ED0-2EB547902EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33975" yWindow="2385" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{811AEE60-83C3-4B49-AA80-21062EEA7978}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{811AEE60-83C3-4B49-AA80-21062EEA7978}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -152,21 +152,12 @@
     <t>Active</t>
   </si>
   <si>
-    <t>QA Tester</t>
-  </si>
-  <si>
-    <t>I'm a certified QA Automation tester.</t>
-  </si>
-  <si>
     <t>Programming &amp; Tech</t>
   </si>
   <si>
     <t>QA</t>
   </si>
   <si>
-    <t>Automated Testing</t>
-  </si>
-  <si>
     <t>Mon,Tue,Wed, Thu, Fri</t>
   </si>
   <si>
@@ -224,10 +215,19 @@
     <t>Translator</t>
   </si>
   <si>
-    <t>I'm a qualified and experienced Translator.</t>
-  </si>
-  <si>
     <t>Translating</t>
+  </si>
+  <si>
+    <t>If you are looking for an experienced translator, look no further!</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Software Tester</t>
+  </si>
+  <si>
+    <t>Are you looking for a good software tester? Look no further.</t>
   </si>
 </sst>
 </file>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF979144-EE90-4A45-8AE8-B1B386702B3B}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +738,11 @@
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -792,10 +797,10 @@
     </row>
     <row r="2" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -804,7 +809,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
@@ -849,13 +854,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A3F7F6-10BB-4EFB-A3A3-62484BA73207}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
@@ -865,9 +870,9 @@
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -922,19 +927,19 @@
     </row>
     <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
@@ -949,19 +954,19 @@
         <v>45083</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O2">
         <v>80</v>
@@ -997,25 +1002,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>12</v>
@@ -1023,28 +1028,28 @@
     </row>
     <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
